--- a/Relatórios LN/Mapeamento_Reports.xlsx
+++ b/Relatórios LN/Mapeamento_Reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="76">
   <si>
     <t>View</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>LN_Fiscal - Transferencia_entre_Filiais</t>
+  </si>
+  <si>
+    <t>Data_de_Emissao</t>
+  </si>
+  <si>
+    <t>Data_Entrada</t>
+  </si>
+  <si>
+    <t>LN_Fiscal -NF_Entrada</t>
+  </si>
+  <si>
+    <t>DATA_RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>LN_Fiscal -NF_Saida</t>
+  </si>
+  <si>
+    <t>DATA_FATURAMENTO</t>
   </si>
 </sst>
 </file>
@@ -289,6 +307,12 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -302,25 +326,19 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D54" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D59" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D59"/>
   <tableColumns count="4">
     <tableColumn id="1" name="View"/>
     <tableColumn id="2" name="Campo"/>
-    <tableColumn id="3" name="Tipo de Dados" dataDxfId="2"/>
-    <tableColumn id="4" name="Atualização Timezone" dataDxfId="1"/>
+    <tableColumn id="3" name="Tipo de Dados" dataDxfId="1"/>
+    <tableColumn id="4" name="Atualização Timezone" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,11 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,9 +1390,85 @@
       <c r="A54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Relatórios LN/Mapeamento_Reports.xlsx
+++ b/Relatórios LN/Mapeamento_Reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="122">
   <si>
     <t>View</t>
   </si>
@@ -244,13 +244,151 @@
   </si>
   <si>
     <t>DATA_FATURAMENTO</t>
+  </si>
+  <si>
+    <t>LN_FISCAL_Apuracao_imposto_federal_alt</t>
+  </si>
+  <si>
+    <t>DATA_LIQUIDACAO</t>
+  </si>
+  <si>
+    <t>LN_FISCAL_Apuracao_imposto_municipal</t>
+  </si>
+  <si>
+    <t>DT_NR</t>
+  </si>
+  <si>
+    <t>DT_VENC</t>
+  </si>
+  <si>
+    <t>LN_Gestão Financeira de Transporte - DBO_Etiquetas_Correios</t>
+  </si>
+  <si>
+    <t>não tem campo de data</t>
+  </si>
+  <si>
+    <t>LN_Inventario_Geral</t>
+  </si>
+  <si>
+    <t>LN_Itens_Cadastrados</t>
+  </si>
+  <si>
+    <t>DATA_INCLUSAO</t>
+  </si>
+  <si>
+    <t>DATA_ALTRERACAO</t>
+  </si>
+  <si>
+    <t>LN_Itens_Sem_OK_Fiscal</t>
+  </si>
+  <si>
+    <t>DATE_INCL</t>
+  </si>
+  <si>
+    <t>DATA_ALTER</t>
+  </si>
+  <si>
+    <t>LN_Notas_Operacoes_Fiscais</t>
+  </si>
+  <si>
+    <t>LN_Ordem_Compra_Pre</t>
+  </si>
+  <si>
+    <t>DATA_ORDEM</t>
+  </si>
+  <si>
+    <t>DATA_PLREC</t>
+  </si>
+  <si>
+    <t>DATA_PREREC</t>
+  </si>
+  <si>
+    <t>LN_Pagamento_Titulo</t>
+  </si>
+  <si>
+    <t>DATA_VENC</t>
+  </si>
+  <si>
+    <t>DATA_PAGAM</t>
+  </si>
+  <si>
+    <t>LN_Planejamento e Desenvolvimento - Laudos_e_Etiquetas</t>
+  </si>
+  <si>
+    <t>DATA_OCORRENCIA</t>
+  </si>
+  <si>
+    <t>DATA_NF_ENTRADA</t>
+  </si>
+  <si>
+    <t>COLETA_PREVISTA</t>
+  </si>
+  <si>
+    <t>RETORNO_PREVISTO</t>
+  </si>
+  <si>
+    <t>LN_Planejamento Financeiro - Razão_Contábil</t>
+  </si>
+  <si>
+    <t>DATA_TRANS</t>
+  </si>
+  <si>
+    <t>LN_Planejamento Logístico - Consulta_Ponto_Ent</t>
+  </si>
+  <si>
+    <t>DATA_PONTO</t>
+  </si>
+  <si>
+    <t>DATA_PROCESSAMENTO</t>
+  </si>
+  <si>
+    <t>LN_Planejamento Logístico - Dados_Cliente_Bianca</t>
+  </si>
+  <si>
+    <t>DATA_PROMETIDA</t>
+  </si>
+  <si>
+    <t>LN_Planejamento Logistico - DBO_Painel_Pendentes_Ajustada_Todos</t>
+  </si>
+  <si>
+    <t>DATA_COMPRA</t>
+  </si>
+  <si>
+    <t>LN_Planejamento Logistico -Entregas_Agendadas</t>
+  </si>
+  <si>
+    <t>LN_Planjamento Logístico - Frete_por_Período_e_NF_GTEQ3050</t>
+  </si>
+  <si>
+    <t>DATA_EXPEDICAO</t>
+  </si>
+  <si>
+    <t>DATA_ENTREGA</t>
+  </si>
+  <si>
+    <t>DATA_AJUSTADA</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Colunas1</t>
+  </si>
+  <si>
+    <t>Fábio</t>
+  </si>
+  <si>
+    <t>Colunas2</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,13 +404,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -301,16 +452,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -332,13 +488,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D59" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D59"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F91" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F91">
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+  </autoFilter>
+  <tableColumns count="6">
     <tableColumn id="1" name="View"/>
     <tableColumn id="2" name="Campo"/>
     <tableColumn id="3" name="Tipo de Dados" dataDxfId="1"/>
     <tableColumn id="4" name="Atualização Timezone" dataDxfId="0"/>
+    <tableColumn id="5" name="Colunas1"/>
+    <tableColumn id="6" name="Colunas2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -629,22 +790,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -657,8 +818,14 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -671,8 +838,11 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -685,8 +855,11 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -699,8 +872,11 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -713,8 +889,11 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -727,8 +906,11 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -741,8 +923,11 @@
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -755,22 +940,29 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -783,8 +975,11 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -797,8 +992,11 @@
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -811,8 +1009,11 @@
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -825,8 +1026,11 @@
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -839,8 +1043,11 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -853,8 +1060,11 @@
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -867,8 +1077,11 @@
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -881,8 +1094,11 @@
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -895,8 +1111,11 @@
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -909,8 +1128,11 @@
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -923,8 +1145,11 @@
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -937,8 +1162,11 @@
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -951,8 +1179,11 @@
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -965,8 +1196,11 @@
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -979,8 +1213,11 @@
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -993,8 +1230,11 @@
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1007,8 +1247,11 @@
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1021,8 +1264,11 @@
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1035,8 +1281,11 @@
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1049,8 +1298,11 @@
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1063,8 +1315,11 @@
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1077,8 +1332,11 @@
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1091,8 +1349,11 @@
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1105,8 +1366,11 @@
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1119,8 +1383,11 @@
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1133,8 +1400,11 @@
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1147,8 +1417,11 @@
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1161,8 +1434,11 @@
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1175,8 +1451,11 @@
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1189,8 +1468,11 @@
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1203,8 +1485,11 @@
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1217,8 +1502,11 @@
       <c r="D41" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1231,8 +1519,11 @@
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1245,8 +1536,11 @@
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1259,8 +1553,11 @@
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1273,8 +1570,11 @@
       <c r="D45" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1287,8 +1587,11 @@
       <c r="D46" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1301,50 +1604,65 @@
       <c r="D47" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="C48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="C49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="C50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
@@ -1357,8 +1675,11 @@
       <c r="D51" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
         <v>65</v>
       </c>
@@ -1371,8 +1692,11 @@
       <c r="D52" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
@@ -1385,8 +1709,11 @@
       <c r="D53" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
         <v>69</v>
       </c>
@@ -1399,8 +1726,11 @@
       <c r="D54" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
         <v>69</v>
       </c>
@@ -1413,8 +1743,11 @@
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
         <v>72</v>
       </c>
@@ -1427,8 +1760,11 @@
       <c r="D56" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
         <v>72</v>
       </c>
@@ -1441,8 +1777,11 @@
       <c r="D57" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
         <v>74</v>
       </c>
@@ -1455,8 +1794,11 @@
       <c r="D58" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
         <v>74</v>
       </c>
@@ -1468,6 +1810,553 @@
       </c>
       <c r="D59" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Relatórios LN/Mapeamento_Reports.xlsx
+++ b/Relatórios LN/Mapeamento_Reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="144">
   <si>
     <t>View</t>
   </si>
@@ -381,7 +381,73 @@
     <t>Colunas2</t>
   </si>
   <si>
-    <t>Ronaldo</t>
+    <t>LN_query_estoque_reversa</t>
+  </si>
+  <si>
+    <t>ULTIMAATUAL</t>
+  </si>
+  <si>
+    <t>LN_Recebimento Fiscal</t>
+  </si>
+  <si>
+    <t>DATA_FISCAL</t>
+  </si>
+  <si>
+    <t>DATA_PLANEJADA</t>
+  </si>
+  <si>
+    <t>LN_Relatorio_Cancelamento</t>
+  </si>
+  <si>
+    <t>DT_VENDA</t>
+  </si>
+  <si>
+    <t>DT_RETORNO_REMESSA</t>
+  </si>
+  <si>
+    <t>LN_Supply - Nota_Fiscal_de_Devolução</t>
+  </si>
+  <si>
+    <t>DATA_FAT</t>
+  </si>
+  <si>
+    <t>DATA_ORDEM_DEVOLVIDA</t>
+  </si>
+  <si>
+    <t>LN_Supply - Ordem_de_Compra</t>
+  </si>
+  <si>
+    <t>DATA_GERACAO</t>
+  </si>
+  <si>
+    <t>LN_Supply - Ordem_de_Venda_VES_EA</t>
+  </si>
+  <si>
+    <t>DATA_APR</t>
+  </si>
+  <si>
+    <t>DATA_PLANENT</t>
+  </si>
+  <si>
+    <t>DATA_PLANREC</t>
+  </si>
+  <si>
+    <t>LN_Supply - Pre-rec_Consignação</t>
+  </si>
+  <si>
+    <t>LN_Supply - Rasqunho_XML</t>
+  </si>
+  <si>
+    <t>data_fiscal</t>
+  </si>
+  <si>
+    <t>data_emissao_nf</t>
+  </si>
+  <si>
+    <t>data_status_altera_erro</t>
+  </si>
+  <si>
+    <t>data_status_altera_agenda</t>
   </si>
 </sst>
 </file>
@@ -438,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,6 +521,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,8 +558,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F91" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:F91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F112" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F112">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
@@ -790,11 +860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90:F91"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1353,7 +1423,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1370,7 +1440,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1387,7 +1457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1474,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1421,7 +1491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1438,7 +1508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1455,7 +1525,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1472,7 +1542,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1489,7 +1559,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1506,7 +1576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1523,7 +1593,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1540,7 +1610,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1557,7 +1627,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1574,7 +1644,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1591,7 +1661,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1608,61 +1678,58 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:5" s="10" customFormat="1">
+      <c r="A48" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8" t="s">
+      <c r="C48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="10" customFormat="1">
+      <c r="A49" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="8" t="s">
+      <c r="C49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="10" customFormat="1">
+      <c r="A50" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="C50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
@@ -1679,7 +1746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
         <v>65</v>
       </c>
@@ -1696,7 +1763,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
@@ -1713,7 +1780,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
         <v>69</v>
       </c>
@@ -1730,7 +1797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
         <v>69</v>
       </c>
@@ -1747,7 +1814,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
         <v>72</v>
       </c>
@@ -1764,7 +1831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
         <v>72</v>
       </c>
@@ -1781,7 +1848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
         <v>74</v>
       </c>
@@ -1798,7 +1865,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
         <v>74</v>
       </c>
@@ -1815,7 +1882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
         <v>76</v>
       </c>
@@ -1832,7 +1899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
         <v>76</v>
       </c>
@@ -1849,7 +1916,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
         <v>78</v>
       </c>
@@ -1866,7 +1933,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
         <v>78</v>
       </c>
@@ -1883,7 +1950,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
         <v>78</v>
       </c>
@@ -2172,7 +2239,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
         <v>103</v>
       </c>
@@ -2189,7 +2256,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="5" t="s">
         <v>105</v>
       </c>
@@ -2206,7 +2273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="5" t="s">
         <v>105</v>
       </c>
@@ -2223,7 +2290,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="5" t="s">
         <v>108</v>
       </c>
@@ -2240,7 +2307,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="5" t="s">
         <v>110</v>
       </c>
@@ -2257,7 +2324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="5" t="s">
         <v>112</v>
       </c>
@@ -2274,7 +2341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -2291,7 +2358,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
         <v>113</v>
       </c>
@@ -2308,7 +2375,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="5" t="s">
         <v>113</v>
       </c>
@@ -2325,7 +2392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="5" t="s">
         <v>113</v>
       </c>
@@ -2342,7 +2409,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="5" t="s">
         <v>113</v>
       </c>
@@ -2358,6 +2425,384 @@
       <c r="E91" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>117</v>
+      </c>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Relatórios LN/Mapeamento_Reports.xlsx
+++ b/Relatórios LN/Mapeamento_Reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="168">
   <si>
     <t>View</t>
   </si>
@@ -448,6 +448,78 @@
   </si>
   <si>
     <t>data_status_altera_agenda</t>
+  </si>
+  <si>
+    <t>LN_Supply - Relatório_de_Itens_BOM</t>
+  </si>
+  <si>
+    <t>LN_Supply - Relatório_de_Itens_XD</t>
+  </si>
+  <si>
+    <t>DT_ALTERCAO</t>
+  </si>
+  <si>
+    <t>DT_ARQ</t>
+  </si>
+  <si>
+    <t>LN_Tesouraria - Relatório_de_Pagamentos</t>
+  </si>
+  <si>
+    <t>DATA_PAGTO</t>
+  </si>
+  <si>
+    <t>LN_Transport GFD_Contratos_Ativos</t>
+  </si>
+  <si>
+    <t>DT_INICIO</t>
+  </si>
+  <si>
+    <t>DT_FIM</t>
+  </si>
+  <si>
+    <t>LN_Transport_Operações - QY0450_pedidos_expedidos_por_data_transp_doca_compl</t>
+  </si>
+  <si>
+    <t>DATA_LIMITE</t>
+  </si>
+  <si>
+    <t>DT_FECHA_GAIOLA</t>
+  </si>
+  <si>
+    <t>LN_Transport_Operações - Transporte DOCA_DIT_DRT</t>
+  </si>
+  <si>
+    <t>LN_Transporte - SACQ270_Delivery_Carga</t>
+  </si>
+  <si>
+    <t>DT_OCORR</t>
+  </si>
+  <si>
+    <t>DT_SITUACAO</t>
+  </si>
+  <si>
+    <t>DT_EMISSAO_NFS</t>
+  </si>
+  <si>
+    <t>DT_EMISSAO_NFE</t>
+  </si>
+  <si>
+    <t>ULT_PONTO_ENTREGA</t>
+  </si>
+  <si>
+    <t>ULT_ALTERACAO</t>
+  </si>
+  <si>
+    <t>DT_REGISTRO</t>
+  </si>
+  <si>
+    <t>LN_Transporte Financeiro - DBO_Dimensões_Itens_Entrega</t>
+  </si>
+  <si>
+    <t>LN_Transporte Financeiro - GTE13251_Ordem_de_Frete</t>
+  </si>
+  <si>
+    <t>DATA_DEV_EMISS_NR</t>
   </si>
 </sst>
 </file>
@@ -558,8 +630,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F112" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:F112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F135" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F135">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
@@ -860,16 +932,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108:E110"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.140625" style="2" bestFit="1" customWidth="1"/>
@@ -2803,6 +2875,420 @@
         <v>117</v>
       </c>
       <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>117</v>
+      </c>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>117</v>
+      </c>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>117</v>
+      </c>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>117</v>
+      </c>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>117</v>
+      </c>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>117</v>
+      </c>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>117</v>
+      </c>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>117</v>
+      </c>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>117</v>
+      </c>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>117</v>
+      </c>
+      <c r="F135" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Relatórios LN/Mapeamento_Reports.xlsx
+++ b/Relatórios LN/Mapeamento_Reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="212">
   <si>
     <t>View</t>
   </si>
@@ -520,6 +520,139 @@
   </si>
   <si>
     <t>DATA_DEV_EMISS_NR</t>
+  </si>
+  <si>
+    <t>LN_Transporte Financeiro - NR por Emissao</t>
+  </si>
+  <si>
+    <t>DT_EMISSAO_PED</t>
+  </si>
+  <si>
+    <t>DT_ENTREGA_PED</t>
+  </si>
+  <si>
+    <t>LN_Transporte Financeiro - NR_CTRC</t>
+  </si>
+  <si>
+    <t>DATA_NR</t>
+  </si>
+  <si>
+    <t>MES_EMISSAO</t>
+  </si>
+  <si>
+    <t>DATA_REGISTRO</t>
+  </si>
+  <si>
+    <t>LN_Transporte Financeiro - Transp_FIN_Consolidade_Frete</t>
+  </si>
+  <si>
+    <t>LN_Transporte Financeiro - Transporte_DOCA_Consolidado</t>
+  </si>
+  <si>
+    <t>LN_Transporte GDF - ConsultaTransportadoraContratoPrazoSituacao_201</t>
+  </si>
+  <si>
+    <t>WMS_FATURAMENTO_CALCULO_HORA</t>
+  </si>
+  <si>
+    <t>WMS_Faturamento_por_Departamento</t>
+  </si>
+  <si>
+    <t>WMS_Faturamento_por_Hora_Serie</t>
+  </si>
+  <si>
+    <t>WMS_MISTURA_POR_ONDA</t>
+  </si>
+  <si>
+    <t>WMS_Ocupacao_por_classe_de_local</t>
+  </si>
+  <si>
+    <t>WMS_PEDIDOS_FILIAIS</t>
+  </si>
+  <si>
+    <t>WMS_PEDIDOS_POR_ETAPA</t>
+  </si>
+  <si>
+    <t>WMS_PEDIDOS_POR_ETAPA_N2</t>
+  </si>
+  <si>
+    <t>WMS_PERF_POR_OPERADOR_EXPEDICAO</t>
+  </si>
+  <si>
+    <t>WMS_PERF_POR_OPERADOR_PICK</t>
+  </si>
+  <si>
+    <t>WMS_PERF_POR_OPERADOR_PICK__PROGRAMA</t>
+  </si>
+  <si>
+    <t>WMS_Q_WMS_REL_016_-_ Armazenagem_Detalhe</t>
+  </si>
+  <si>
+    <t>WMS_R015_ESTOQUE VALOR PLANTA FILIAL E ITENS COM VALOR</t>
+  </si>
+  <si>
+    <t>WMS_R018_PERF_POR_OPERADOR_PICK__PROGRAMA</t>
+  </si>
+  <si>
+    <t>WMS_R020_PERF_POR_OPERADOR_PICK</t>
+  </si>
+  <si>
+    <t>WMS_R042_ACOMPANHAMENTO_VENDAS_POR_ITEM</t>
+  </si>
+  <si>
+    <t>tdsls400.t$odat 
+[clausula WHERE]</t>
+  </si>
+  <si>
+    <t>DT_COMPRA</t>
+  </si>
+  <si>
+    <t>WMS_R061_Pedidos_Expedidos_por_Data</t>
+  </si>
+  <si>
+    <t>WMS_R066_Tempo_WMS</t>
+  </si>
+  <si>
+    <t>WMS_REL_004_Performance_Operadores_Recebimento</t>
+  </si>
+  <si>
+    <t>WMS_REL_005_-_Tempo_de_Recebimento_Depto_v2</t>
+  </si>
+  <si>
+    <t>WMS_REL_031_PEDIDOS_WMS</t>
+  </si>
+  <si>
+    <t>WMS_REL_034_Perf_Homem_a_Hora_Moviment_e_Armazenagem</t>
+  </si>
+  <si>
+    <t>WMS_REL_061_Pedidos_Expedidos_por_Data</t>
+  </si>
+  <si>
+    <t>WMS_REL_064_Locais_de_Armazenamento_por_Recdoc</t>
+  </si>
+  <si>
+    <t>WMS_REL_066_Tempo_WMS</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>data_limite_exped</t>
+  </si>
+  <si>
+    <t>ult_evento_data</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>DT_LIQUID_ROM</t>
+  </si>
+  <si>
+    <t>DATA_ULT_EVENTO</t>
   </si>
 </sst>
 </file>
@@ -576,39 +709,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -623,6 +799,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,18 +807,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F135" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:F135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F175" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F175">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="View"/>
-    <tableColumn id="2" name="Campo"/>
-    <tableColumn id="3" name="Tipo de Dados" dataDxfId="1"/>
-    <tableColumn id="4" name="Atualização Timezone" dataDxfId="0"/>
-    <tableColumn id="5" name="Colunas1"/>
-    <tableColumn id="6" name="Colunas2"/>
+    <tableColumn id="1" name="View" dataDxfId="5"/>
+    <tableColumn id="2" name="Campo" dataDxfId="4"/>
+    <tableColumn id="3" name="Tipo de Dados" dataDxfId="3"/>
+    <tableColumn id="4" name="Atualização Timezone" dataDxfId="2"/>
+    <tableColumn id="5" name="Colunas1" dataDxfId="1"/>
+    <tableColumn id="6" name="Colunas2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -932,829 +1109,830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="78.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="C34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="C35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="C36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="C39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="C40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="C41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="C42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="C43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="C44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="C45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="C46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="10" customFormat="1">
+      <c r="C47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1">
       <c r="A48" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -1766,12 +1944,13 @@
       <c r="E48" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" s="10" customFormat="1">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1">
       <c r="A49" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -1783,12 +1962,13 @@
       <c r="E49" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" s="10" customFormat="1">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1">
       <c r="A50" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -1800,1495 +1980,2092 @@
       <c r="E50" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
+      <c r="C51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="5" t="s">
+      <c r="C52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="5" t="s">
+      <c r="C53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="5" t="s">
+      <c r="C54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="5" t="s">
+      <c r="C55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="5" t="s">
+      <c r="C56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="5" t="s">
+      <c r="C57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="5" t="s">
+      <c r="C58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
+      <c r="C59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="5" t="s">
+      <c r="C61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="5" t="s">
+      <c r="C62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="5" t="s">
+      <c r="C63" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C71" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="C74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C78" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C80" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="C81" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="C85" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C86" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="C87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="C88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="C89" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="C90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="C91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" t="s">
-        <v>117</v>
-      </c>
-      <c r="F92" s="5"/>
+      <c r="C92" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="12"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" t="s">
-        <v>117</v>
-      </c>
-      <c r="F93" s="5"/>
+      <c r="C93" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" s="12"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" t="s">
-        <v>117</v>
-      </c>
-      <c r="F94" s="5"/>
+      <c r="C94" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" s="12"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" t="s">
-        <v>117</v>
-      </c>
-      <c r="F95" s="5"/>
+      <c r="C95" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" t="s">
-        <v>117</v>
-      </c>
-      <c r="F96" s="5"/>
+      <c r="C96" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" t="s">
-        <v>117</v>
-      </c>
-      <c r="F97" s="5"/>
+      <c r="C97" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="12"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" t="s">
-        <v>117</v>
-      </c>
-      <c r="F98" s="5"/>
+      <c r="C98" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="5"/>
+      <c r="C99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" t="s">
-        <v>117</v>
-      </c>
-      <c r="F100" s="5"/>
+      <c r="C100" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" t="s">
-        <v>117</v>
-      </c>
-      <c r="F101" s="5"/>
+      <c r="C101" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" t="s">
-        <v>117</v>
-      </c>
-      <c r="F102" s="5"/>
+      <c r="C102" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" t="s">
-        <v>117</v>
-      </c>
-      <c r="F103" s="5"/>
+      <c r="C103" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" t="s">
-        <v>117</v>
-      </c>
-      <c r="F104" s="5"/>
+      <c r="C104" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" t="s">
-        <v>117</v>
-      </c>
-      <c r="F105" s="5"/>
+      <c r="C105" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" t="s">
-        <v>117</v>
-      </c>
-      <c r="F106" s="5"/>
+      <c r="C106" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" s="12"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" t="s">
-        <v>117</v>
-      </c>
-      <c r="F107" s="5"/>
+      <c r="C107" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F108" s="5"/>
+      <c r="C108" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F109" s="5"/>
+      <c r="C109" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F110" s="5"/>
+      <c r="C110" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" t="s">
-        <v>117</v>
-      </c>
-      <c r="F111" s="5"/>
+      <c r="C111" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" t="s">
-        <v>117</v>
-      </c>
-      <c r="F112" s="5"/>
+      <c r="C112" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F113" s="5"/>
+      <c r="E113" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" t="s">
-        <v>117</v>
-      </c>
-      <c r="F114" s="5"/>
+      <c r="C114" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" s="12"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" t="s">
-        <v>117</v>
-      </c>
-      <c r="F115" s="5"/>
+      <c r="C115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F116" s="5"/>
+      <c r="C116" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F117" s="5"/>
+      <c r="C117" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F117" s="12"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F118" s="5"/>
+      <c r="C118" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" s="12"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F119" s="5"/>
+      <c r="C119" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F119" s="12"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F120" s="5"/>
+      <c r="C120" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="12"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" t="s">
-        <v>117</v>
-      </c>
-      <c r="F121" s="5"/>
+      <c r="C121" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" t="s">
-        <v>117</v>
-      </c>
-      <c r="F122" s="5"/>
+      <c r="C122" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" s="12"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" t="s">
-        <v>117</v>
-      </c>
-      <c r="F123" s="5"/>
+      <c r="C123" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F123" s="12"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F124" s="5"/>
+      <c r="E124" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F124" s="12"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" t="s">
-        <v>117</v>
-      </c>
-      <c r="F125" s="5"/>
+      <c r="C125" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" s="12"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" t="s">
-        <v>117</v>
-      </c>
-      <c r="F126" s="5"/>
+      <c r="C126" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F126" s="12"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" t="s">
-        <v>117</v>
-      </c>
-      <c r="F127" s="5"/>
+      <c r="C127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F127" s="12"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" t="s">
-        <v>117</v>
-      </c>
-      <c r="F128" s="5"/>
+      <c r="C128" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F128" s="12"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" t="s">
-        <v>117</v>
-      </c>
-      <c r="F129" s="5"/>
+      <c r="C129" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="12"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" t="s">
-        <v>117</v>
-      </c>
-      <c r="F130" s="5"/>
+      <c r="C130" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F130" s="12"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" t="s">
-        <v>117</v>
-      </c>
-      <c r="F131" s="5"/>
+      <c r="C131" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F131" s="12"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F132" s="5"/>
+      <c r="E132" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F132" s="12"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133" t="s">
-        <v>117</v>
-      </c>
-      <c r="F133" s="5"/>
+      <c r="C133" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" s="12"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" t="s">
-        <v>117</v>
-      </c>
-      <c r="F134" s="5"/>
+      <c r="C134" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F134" s="12"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135" t="s">
-        <v>117</v>
-      </c>
-      <c r="F135" s="5"/>
+      <c r="C135" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F135" s="14"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F136" s="14"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F137" s="14"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F138" s="14"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F139" s="14"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F140" s="14"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F141" s="14"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" s="14"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F143" s="14"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F144" s="14"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F145" s="14"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F146" s="14"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F147" s="14"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F148" s="14"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F149" s="14"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F150" s="14"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F151" s="14"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F152" s="14"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F153" s="14"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F154" s="14"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F155" s="14"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F156" s="14"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F157" s="14"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B158" s="16"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" s="16"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B160" s="16"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" s="16"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B162" s="16"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B164" s="16"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B165" s="16"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="12"/>
+    </row>
+    <row r="166" spans="1:6" ht="30">
+      <c r="A166" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F166" s="12"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F167" s="12"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B168" s="16"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E169" s="14"/>
+      <c r="F169" s="12"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B170" s="16"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B171" s="16"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B172" s="16"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F173" s="12"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B175" s="16"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Relatórios LN/Mapeamento_Reports.xlsx
+++ b/Relatórios LN/Mapeamento_Reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="233">
   <si>
     <t>View</t>
   </si>
@@ -653,6 +653,69 @@
   </si>
   <si>
     <t>DATA_ULT_EVENTO</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>DT_SIT</t>
+  </si>
+  <si>
+    <t>DT_LIMITE</t>
+  </si>
+  <si>
+    <t>DT_LIQUIDADO</t>
+  </si>
+  <si>
+    <t>DT_ENTREGA1</t>
+  </si>
+  <si>
+    <t>DT_ULT_EVENTO</t>
+  </si>
+  <si>
+    <t>DT_WMS</t>
+  </si>
+  <si>
+    <t>DT_PROMETIDA</t>
+  </si>
+  <si>
+    <t>PETK_DT_FECHAMENTO_GAIOLA</t>
+  </si>
+  <si>
+    <t>H_ENTRADA,</t>
+  </si>
+  <si>
+    <t>INICIO_EFETIVO,</t>
+  </si>
+  <si>
+    <t>TPREP</t>
+  </si>
+  <si>
+    <t>TREC</t>
+  </si>
+  <si>
+    <t>TTOT</t>
+  </si>
+  <si>
+    <t>DT_APROV</t>
+  </si>
+  <si>
+    <t>DT_REC_HOST</t>
+  </si>
+  <si>
+    <t>DT_FEC_GAI</t>
+  </si>
+  <si>
+    <t>DT_LIQ_SEC</t>
+  </si>
+  <si>
+    <t>DT_EMISSAO_NF</t>
+  </si>
+  <si>
+    <t>WMS_REL_056_ESTOQUE_GERAL_POR_FILIAL</t>
+  </si>
+  <si>
+    <t>DT_SIT_ROM</t>
   </si>
 </sst>
 </file>
@@ -757,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,8 +870,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F175" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F211" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F211">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
@@ -1109,17 +1172,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="31.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="5"/>
@@ -3848,97 +3911,139 @@
       <c r="F157" s="14"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B158" s="16"/>
+      <c r="B158" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="14"/>
+      <c r="D158" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B159" s="16"/>
+        <v>185</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="14"/>
+      <c r="D159" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B160" s="16"/>
+        <v>185</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="14"/>
+      <c r="D160" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="F160" s="14"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B161" s="16"/>
+        <v>186</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="14"/>
+      <c r="D161" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="F161" s="14"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B162" s="16"/>
+        <v>186</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="14"/>
+      <c r="D162" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="F162" s="14"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C163" s="15"/>
       <c r="D163" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E163" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="F163" s="14"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B164" s="16"/>
+        <v>187</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="14"/>
+      <c r="D164" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B165" s="16"/>
+        <v>188</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>212</v>
+      </c>
       <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="12"/>
-    </row>
-    <row r="166" spans="1:6" ht="30">
+      <c r="D165" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F165" s="14"/>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15" t="s">
@@ -3947,125 +4052,736 @@
       <c r="E166" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F166" s="12"/>
+      <c r="F166" s="14"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F167" s="14"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F169" s="14"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F170" s="14"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F171" s="12"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F172" s="12"/>
+    </row>
+    <row r="173" spans="1:6" ht="30">
+      <c r="A173" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F173" s="12"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B174" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F174" s="12"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C167" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F167" s="12"/>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="12" t="s">
+      <c r="C175" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F175" s="12"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F176" s="12"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F177" s="12"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F178" s="12"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F179" s="12"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B168" s="16"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="12" t="s">
+      <c r="B180" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F180" s="12"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F181" s="12"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F182" s="12"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F183" s="12"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F184" s="12"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B185" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C185" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D169" s="15" t="s">
+      <c r="D185" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E169" s="14"/>
-      <c r="F169" s="12"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="12" t="s">
+      <c r="E185" s="14"/>
+      <c r="F185" s="12"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="12" t="s">
+      <c r="B186" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" s="13"/>
+      <c r="D186" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F186" s="12"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F187" s="12"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F188" s="12"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F189" s="12"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F190" s="12"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B171" s="16"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="12" t="s">
+      <c r="B191" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F191" s="12"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F192" s="12"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F193" s="12"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F194" s="12"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F195" s="12"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F196" s="12"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F197" s="12"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B172" s="16"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="12" t="s">
+      <c r="B198" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F198" s="12"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F199" s="12"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F200" s="12"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="B201" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C173" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F173" s="12"/>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="12" t="s">
+      <c r="C201" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F201" s="12"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F202" s="12"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F203" s="12"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F204" s="12"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F205" s="12"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B174" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="12" t="s">
+      <c r="B206" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F206" s="12"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B175" s="16"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
+      <c r="B207" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F207" s="12"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F208" s="14"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F209" s="12"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210" s="13"/>
+      <c r="D210" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F210" s="12"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C211" s="13"/>
+      <c r="D211" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F211" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Relatórios LN/Mapeamento_Reports.xlsx
+++ b/Relatórios LN/Mapeamento_Reports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="239">
   <si>
     <t>View</t>
   </si>
@@ -716,6 +716,24 @@
   </si>
   <si>
     <t>DT_SIT_ROM</t>
+  </si>
+  <si>
+    <t>WMS_REL_068_-_Elton_Relatorio</t>
+  </si>
+  <si>
+    <t>WMS_REL_074_Base_Recebimento</t>
+  </si>
+  <si>
+    <t>WMS_Valor_expedido_volume_cubado</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>MESANO</t>
+  </si>
+  <si>
+    <t>WMS_Valor_Recebido_Volume_Cubado</t>
   </si>
 </sst>
 </file>
@@ -870,8 +888,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F211" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F216" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F216">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
@@ -1172,11 +1190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4782,6 +4800,86 @@
         <v>117</v>
       </c>
       <c r="F211" s="12"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="13"/>
+      <c r="D212" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F212" s="12"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C213" s="13"/>
+      <c r="D213" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F213" s="12"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C214" s="13"/>
+      <c r="D214" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F214" s="12"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C215" s="13"/>
+      <c r="D215" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F215" s="12"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C216" s="13"/>
+      <c r="D216" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F216" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
